--- a/BigBookOfVariableNames.xlsx
+++ b/BigBookOfVariableNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapplen\Documents\GitHub\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF590FEB-18EC-497F-96E5-30C44C34D8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A491EEA-641E-43E0-85D6-E5DF6249EB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="915" windowWidth="20340" windowHeight="9795" firstSheet="1" activeTab="1" xr2:uid="{008E5217-F733-4E47-9D1E-43FE184E83DE}"/>
+    <workbookView xWindow="6795" yWindow="855" windowWidth="15495" windowHeight="12660" firstSheet="1" activeTab="1" xr2:uid="{008E5217-F733-4E47-9D1E-43FE184E83DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>NGC_N19-6457</t>
   </si>
@@ -118,6 +118,27 @@
   </si>
   <si>
     <t>P1dB, C1 characterization, needed for interpolation (keep the power head in it's "happy range"), safety an overpower output power accedent, verify source power level setting tracks with actual power. Sanity check that source has enough dynamic range.</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>Model bands</t>
+  </si>
+  <si>
+    <t>Input Frequency, Band, temperature, timestamp, tech name, bench, calibration files used (timestamp)</t>
+  </si>
+  <si>
+    <t>frequency(input with corresponding output by step) , input network correction, output network correction, "happy range", timestamp</t>
+  </si>
+  <si>
+    <t>frequencies, powers, bands, LO's, step sizes per band,</t>
+  </si>
+  <si>
+    <t>calculate output frequency save and sort calibration table before save. Write a cal table plot function.</t>
   </si>
 </sst>
 </file>
@@ -515,10 +536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2649951-24F5-4472-AC6F-7EC699D87016}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,87 +555,116 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/BigBookOfVariableNames.xlsx
+++ b/BigBookOfVariableNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapplen\Documents\GitHub\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A491EEA-641E-43E0-85D6-E5DF6249EB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C594012-3F9F-4698-95F9-8D215A87C918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="855" windowWidth="15495" windowHeight="12660" firstSheet="1" activeTab="1" xr2:uid="{008E5217-F733-4E47-9D1E-43FE184E83DE}"/>
+    <workbookView xWindow="2160" yWindow="1305" windowWidth="15105" windowHeight="14730" firstSheet="1" activeTab="1" xr2:uid="{008E5217-F733-4E47-9D1E-43FE184E83DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>NGC_N19-6457</t>
   </si>
@@ -139,6 +139,90 @@
   </si>
   <si>
     <t>calculate output frequency save and sort calibration table before save. Write a cal table plot function.</t>
+  </si>
+  <si>
+    <t>FoutStop</t>
+  </si>
+  <si>
+    <t>FoutStart</t>
+  </si>
+  <si>
+    <t>FinStart</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>band1</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>band1.in.startFreq</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>pwr</t>
+  </si>
+  <si>
+    <t>band1.in.pwr</t>
+  </si>
+  <si>
+    <t>P1dB</t>
+  </si>
+  <si>
+    <t>Lo</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>startFreq</t>
+  </si>
+  <si>
+    <t>stopFreq</t>
+  </si>
+  <si>
+    <t>band1.in.stopFreq</t>
+  </si>
+  <si>
+    <t>band1.out.startFreq</t>
+  </si>
+  <si>
+    <t>band1.out.stopFreq</t>
+  </si>
+  <si>
+    <t>band1.out.P1dB</t>
+  </si>
+  <si>
+    <t>band1.Lo.freq</t>
+  </si>
+  <si>
+    <t>band1.Lo.pwr</t>
+  </si>
+  <si>
+    <t>band1.gain</t>
+  </si>
+  <si>
+    <t>band1.BW</t>
+  </si>
+  <si>
+    <t>stepSize</t>
+  </si>
+  <si>
+    <t>band1.out.stepSize</t>
+  </si>
+  <si>
+    <t>NumOfBands</t>
+  </si>
+  <si>
+    <t>ModelNum_NF_Plan</t>
   </si>
 </sst>
 </file>
@@ -154,12 +238,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,14 +264,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -536,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2649951-24F5-4472-AC6F-7EC699D87016}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +645,7 @@
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -555,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -563,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -571,103 +669,323 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>